--- a/vine_animations/sine wave generator.xlsx
+++ b/vine_animations/sine wave generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sine" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>frequency hz</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>orig</t>
+  </si>
+  <si>
+    <t>Frame</t>
   </si>
 </sst>
 </file>
@@ -128,9 +131,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -226,97 +230,97 @@
             <c:numRef>
               <c:f>sine!$F$2:$F$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.15999680670055</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.3712331105554</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.6999109509317</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>231.2419214830423</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>282.1371033357864</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>328.5828078906446</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>369.8465575487552</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405.2775973574422</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>434.3171578198713</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>456.5072670369535</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>471.4979732085475</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>479.0528635906321</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>479.0527928710677</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>471.4977621651458</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>456.506918998</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>434.3166782741562</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>405.2769938676993</c:v>
+                  <c:v>-98.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>369.8458396323923</c:v>
+                  <c:v>-141.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>328.5819868696487</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>282.1361921581682</c:v>
+                  <c:v>-208.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231.2409345186388</c:v>
+                  <c:v>-228.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176.6988637647841</c:v>
+                  <c:v>-239.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>119.3701422174396</c:v>
+                  <c:v>-239.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60.15887941067815</c:v>
+                  <c:v>-228.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.00112627689973677</c:v>
+                  <c:v>-208.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-60.16111420239162</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-119.3723240030141</c:v>
+                  <c:v>-141.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-176.7009581361066</c:v>
+                  <c:v>-98.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-231.242908446173</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,7 +366,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1105,16 +1109,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1571,7 +1575,7 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1590,8 +1594,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1599,20 +1606,23 @@
         <v>6.2831900000000003</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <f>$C$2*SIN($B$2*$E2)</f>
+      <c r="F2" s="2">
+        <f>ROUND($C$2*SIN($B$2*$E2),2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1621,291 +1631,378 @@
       </c>
       <c r="E3">
         <f>E2+$D$2</f>
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F31" si="0">$C$2*SIN($B$2*$E3)</f>
-        <v>60.159996806700555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F31" si="0">ROUND($C$2*SIN($B$2*$E3),0)</f>
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="E4">
         <f t="shared" ref="E4:E31" si="1">E3+$D$2</f>
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="1">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>119.37123311055537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="F5" s="1">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>176.69991095093172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="F6" s="1">
+        <v>0.13333333333333319</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>231.24192148304235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="1">
+        <v>0.16666666666666649</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>282.13710333578643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="F8" s="1">
+        <v>0.19999999999999979</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>328.58280789064457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>228</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9" s="1">
+        <v>0.23333333333333309</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>369.84655754875519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-      <c r="F10" s="1">
+        <v>0.26666666666666639</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>405.27759735744223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="F11" s="1">
+        <v>0.29999999999999971</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>434.31715781987134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>228</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F12" s="1">
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>456.50726703695352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="F13" s="1">
+        <v>0.36666666666666636</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>471.49797320854748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="F14" s="1">
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>479.05286359063211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.25999999999999995</v>
-      </c>
-      <c r="F15" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>479.05279287106771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="F16" s="1">
+        <v>0.46666666666666634</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>471.49776216514579</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="1">
+        <v>0.49999999999999967</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>456.506918998</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-      <c r="F18" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>434.31667827415617</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
+        <v>-50</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="F19" s="1">
+        <v>0.56666666666666632</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>405.27699386769928</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
+        <v>-98</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="F20" s="1">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>369.84583963239231</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
+        <v>-141</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.38000000000000006</v>
-      </c>
-      <c r="F21" s="1">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>328.58198686964874</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
+        <v>-178</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="F22" s="1">
+        <v>0.6666666666666663</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>282.13619215816823</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
+        <v>-208</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.4200000000000001</v>
-      </c>
-      <c r="F23" s="1">
+        <v>0.69999999999999962</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>231.2409345186388</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
+        <v>-228</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>0.44000000000000011</v>
-      </c>
-      <c r="F24" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>176.69886376478411</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
+        <v>-239</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.46000000000000013</v>
-      </c>
-      <c r="F25" s="1">
+        <v>0.76666666666666627</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>119.37014221743956</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
+        <v>-239</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.48000000000000015</v>
-      </c>
-      <c r="F26" s="1">
+        <v>0.7999999999999996</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>60.158879410678153</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
+        <v>-228</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="F27" s="1">
+        <v>0.83333333333333293</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1262768997367671E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
+        <v>-208</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0.52000000000000013</v>
-      </c>
-      <c r="F28" s="1">
+        <v>0.86666666666666625</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>-60.161114202391616</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
+        <v>-178</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.54000000000000015</v>
-      </c>
-      <c r="F29" s="1">
+        <v>0.89999999999999958</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>-119.37232400301411</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6">
+        <v>-141</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.56000000000000016</v>
-      </c>
-      <c r="F30" s="1">
+        <v>0.9333333333333329</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>-176.70095813610658</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
+        <v>-98</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>0.58000000000000018</v>
-      </c>
-      <c r="F31" s="1">
+        <v>0.96666666666666623</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>-231.24290844617303</v>
+        <v>-50</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/vine_animations/sine wave generator.xlsx
+++ b/vine_animations/sine wave generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sine" sheetId="1" r:id="rId1"/>
@@ -236,91 +236,91 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.0</c:v>
+                  <c:v>303.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239.0</c:v>
+                  <c:v>348.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>239.0</c:v>
+                  <c:v>348.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>228.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208.0</c:v>
+                  <c:v>303.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>141.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-50.0</c:v>
+                  <c:v>-73.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-98.0</c:v>
+                  <c:v>-142.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-141.0</c:v>
+                  <c:v>-206.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-178.0</c:v>
+                  <c:v>-260.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-208.0</c:v>
+                  <c:v>-303.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-228.0</c:v>
+                  <c:v>-333.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-239.0</c:v>
+                  <c:v>-348.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-239.0</c:v>
+                  <c:v>-348.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-228.0</c:v>
+                  <c:v>-333.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-208.0</c:v>
+                  <c:v>-303.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-178.0</c:v>
+                  <c:v>-260.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-141.0</c:v>
+                  <c:v>-206.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-98.0</c:v>
+                  <c:v>-142.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-50.0</c:v>
+                  <c:v>-73.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,11 +338,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115164584"/>
-        <c:axId val="2115167464"/>
+        <c:axId val="2109132472"/>
+        <c:axId val="2109135496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115164584"/>
+        <c:axId val="2109132472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115167464"/>
+        <c:crossAx val="2109135496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -359,7 +359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115167464"/>
+        <c:axId val="2109135496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115164584"/>
+        <c:crossAx val="2109132472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -520,8 +520,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115119144"/>
-        <c:axId val="2115116152"/>
+        <c:axId val="2112385336"/>
+        <c:axId val="2112388312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115119144"/>
-        <c:axId val="2115116152"/>
+        <c:axId val="2112385336"/>
+        <c:axId val="2112388312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115119144"/>
+        <c:axId val="2112385336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115116152"/>
+        <c:crossAx val="2112388312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -663,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115116152"/>
+        <c:axId val="2112388312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115119144"/>
+        <c:crossAx val="2112385336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,11 +788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115093576"/>
-        <c:axId val="2115090616"/>
+        <c:axId val="2112410664"/>
+        <c:axId val="2112413608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115093576"/>
+        <c:axId val="2112410664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115090616"/>
+        <c:crossAx val="2112413608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115090616"/>
+        <c:axId val="2112413608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115093576"/>
+        <c:crossAx val="2112410664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,8 +934,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115062200"/>
-        <c:axId val="2115059208"/>
+        <c:axId val="2112442040"/>
+        <c:axId val="2112445016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1056,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115062200"/>
-        <c:axId val="2115059208"/>
+        <c:axId val="2112442040"/>
+        <c:axId val="2112445016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115062200"/>
+        <c:axId val="2112442040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115059208"/>
+        <c:crossAx val="2112445016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1077,7 +1077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115059208"/>
+        <c:axId val="2112445016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115062200"/>
+        <c:crossAx val="2112442040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F16" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1606,7 +1606,7 @@
         <v>6.2831900000000003</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="D2">
         <v>3.3333333333333298E-2</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F31" si="0">ROUND($C$2*SIN($B$2*$E3),0)</f>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-73</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>-98</v>
+        <v>-142</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>-141</v>
+        <v>-206</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>-178</v>
+        <v>-260</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>-208</v>
+        <v>-303</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>-228</v>
+        <v>-333</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>-239</v>
+        <v>-348</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>-239</v>
+        <v>-348</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>-228</v>
+        <v>-333</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>-208</v>
+        <v>-303</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>-178</v>
+        <v>-260</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>-141</v>
+        <v>-206</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>-98</v>
+        <v>-142</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-73</v>
       </c>
       <c r="G31">
         <v>30</v>
